--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="First Sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Second Sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Hello World!</t>
+  </si>
+  <si>
+    <t>New Sheet</t>
   </si>
 </sst>
 </file>
@@ -380,4 +384,38 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="First Sheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Second Sheet" sheetId="2" r:id="rId5"/>
+    <sheet name="Copy Sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
     <t>Hello World!</t>
-  </si>
-  <si>
-    <t>New Sheet</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="First Sheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Copy Sheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>Hello World!</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,7 +349,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -362,43 +357,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2">
+      <c r="B1">
+        <v>100</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2">
+      <c r="B2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -349,7 +349,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -372,6 +372,12 @@
         <v>86</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -15,7 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+  <si>
+    <t>Hello, this is a very very long string.</t>
+  </si>
+  <si>
+    <t>World!</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Foo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -358,27 +371,33 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1">
-        <v>100</v>
+      <c r="B1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2">
-        <v>53</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3">
-        <v>86</v>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4">
-        <f>SUM(B1:B3)</f>
-        <v>239</v>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -369,6 +369,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.10" hidden="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -383,7 +386,7 @@
     <row r="3" spans="1:2">
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" hidden="true">
       <c r="B4" t="s">
         <v>3</v>
       </c>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -17,16 +17,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Hello, this is a very very long string.</t>
+    <t>Hello</t>
   </si>
   <si>
     <t>World!</t>
   </si>
   <si>
-    <t>Bar</t>
+    <t>Foo</t>
   </si>
   <si>
-    <t>Foo</t>
+    <t>Bar</t>
   </si>
 </sst>
 </file>
@@ -34,7 +34,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -43,6 +43,15 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="1"/>
+      <u val="single"/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cooper Hewitt"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,8 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -362,16 +374,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.10" hidden="true" style="0"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -383,24 +392,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3"/>
+    <row r="3" spans="1:2" customHeight="1" ht="50">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" hidden="true">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -72,8 +72,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -62,8 +62,22 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00FF00"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -72,7 +86,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -9,13 +9,24 @@
   <sheets>
     <sheet name="First Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'First Sheet'!$A$1:$C$4</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
   <si>
     <t>Hello</t>
   </si>
@@ -24,9 +35,6 @@
   </si>
   <si>
     <t>Foo</t>
-  </si>
-  <si>
-    <t>Bar</t>
   </si>
 </sst>
 </file>
@@ -34,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -43,15 +51,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="1"/>
-      <u val="single"/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cooper Hewitt"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,32 +61,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF0000FF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00FF00"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,38 +367,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customHeight="1" ht="50">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C4"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/uploads/hello.xlsx
+++ b/public/uploads/hello.xlsx
@@ -373,7 +373,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
